--- a/fechamento_2021/fechamento_agosto/PositivosAgosto.xlsx
+++ b/fechamento_2021/fechamento_agosto/PositivosAgosto.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\csv\esus\fechamento_agosto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rodolfo\Documents\Uipath\rpa_esus_edge\fechamento_2021\fechamento_agosto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74C3901B-FDF6-428D-B829-F81A0592461A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{275CB5D9-7FF8-46FC-A842-ED623C209F16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D165F2F0-A88A-44DC-BDB8-A52AF476A83F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D165F2F0-A88A-44DC-BDB8-A52AF476A83F}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Plan1!$A$1:$BI$12</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,19 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="107">
-  <si>
-    <t>YASMIM ALVES SACRAMENTO</t>
-  </si>
-  <si>
-    <t>Febre, Coriza</t>
-  </si>
-  <si>
-    <t>DETECTADO</t>
-  </si>
-  <si>
-    <t>Coletado</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="91">
   <si>
     <t>RT-PCR</t>
   </si>
@@ -48,36 +39,12 @@
     <t>SIM</t>
   </si>
   <si>
-    <t>GABRIEL FRANCISCO ALVES</t>
-  </si>
-  <si>
-    <t>Dor de Garganta, Tosse, Dor de Cabeca, Disturbios Gustativos, Disturbios Olfativos</t>
-  </si>
-  <si>
-    <t>Não detectável</t>
-  </si>
-  <si>
     <t>Concluído</t>
   </si>
   <si>
-    <t>GIOVANNA BRAGA DE SOUSA</t>
-  </si>
-  <si>
-    <t>Assintomatico</t>
-  </si>
-  <si>
     <t>Em tratamento domiciliar</t>
   </si>
   <si>
-    <t>Descartado</t>
-  </si>
-  <si>
-    <t>AMANDA LEITE CAETANO</t>
-  </si>
-  <si>
-    <t>Coriza, Disturbios Olfativos, Disturbios Gustativos, Tosse, Febre</t>
-  </si>
-  <si>
     <t>Detectável</t>
   </si>
   <si>
@@ -87,12 +54,6 @@
     <t>Confirmado por Critério Clínico</t>
   </si>
   <si>
-    <t>JOAO VITOR BAPTISTA CAMPOS</t>
-  </si>
-  <si>
-    <t>Coriza, Outros</t>
-  </si>
-  <si>
     <t>OSMAR BISPO DA SILVA</t>
   </si>
   <si>
@@ -112,12 +73,6 @@
   </si>
   <si>
     <t>Disturbios Olfativos, Disturbios Gustativos, Dor de Cabeca, Tosse, Febre</t>
-  </si>
-  <si>
-    <t>LAURA BARBOSA LISBOA</t>
-  </si>
-  <si>
-    <t>Dor de Garganta, Febre, Dor de Cabeca</t>
   </si>
   <si>
     <t>MARIA ELCI GOMES DORNELAS</t>
@@ -699,10 +654,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F65DDA92-2BE3-4B27-B6F3-DDAD0E7A1265}">
-  <dimension ref="A1:BI18"/>
+  <dimension ref="A1:BI12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -730,222 +685,216 @@
     <col min="61" max="61" width="4.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:61" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O1" t="s">
+        <v>44</v>
+      </c>
+      <c r="P1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q1" t="s">
         <v>46</v>
       </c>
-      <c r="B1" t="s">
+      <c r="R1" t="s">
         <v>47</v>
       </c>
-      <c r="C1" t="s">
+      <c r="S1" t="s">
         <v>48</v>
       </c>
-      <c r="D1" t="s">
+      <c r="T1" t="s">
         <v>49</v>
       </c>
-      <c r="E1" t="s">
+      <c r="U1" t="s">
         <v>50</v>
       </c>
-      <c r="F1" t="s">
+      <c r="V1" t="s">
         <v>51</v>
       </c>
-      <c r="G1" t="s">
+      <c r="W1" t="s">
         <v>52</v>
       </c>
-      <c r="H1" t="s">
+      <c r="X1" t="s">
         <v>53</v>
       </c>
-      <c r="I1" t="s">
+      <c r="Y1" t="s">
         <v>54</v>
       </c>
-      <c r="J1" t="s">
+      <c r="Z1" t="s">
         <v>55</v>
       </c>
-      <c r="K1" t="s">
+      <c r="AA1" t="s">
         <v>56</v>
       </c>
-      <c r="L1" t="s">
+      <c r="AB1" t="s">
         <v>57</v>
       </c>
-      <c r="M1" t="s">
+      <c r="AC1" t="s">
         <v>58</v>
       </c>
-      <c r="N1" t="s">
+      <c r="AD1" t="s">
         <v>59</v>
       </c>
-      <c r="O1" t="s">
+      <c r="AE1" t="s">
         <v>60</v>
       </c>
-      <c r="P1" t="s">
+      <c r="AF1" t="s">
         <v>61</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="AG1" t="s">
         <v>62</v>
       </c>
-      <c r="R1" t="s">
+      <c r="AH1" t="s">
         <v>63</v>
       </c>
-      <c r="S1" t="s">
+      <c r="AI1" t="s">
         <v>64</v>
       </c>
-      <c r="T1" t="s">
+      <c r="AJ1" t="s">
         <v>65</v>
       </c>
-      <c r="U1" t="s">
+      <c r="AK1" t="s">
         <v>66</v>
       </c>
-      <c r="V1" t="s">
+      <c r="AL1" t="s">
         <v>67</v>
       </c>
-      <c r="W1" t="s">
+      <c r="AM1" t="s">
         <v>68</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AN1" t="s">
         <v>69</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AO1" t="s">
         <v>70</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AP1" t="s">
         <v>71</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AQ1" t="s">
         <v>72</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AR1" t="s">
         <v>73</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AS1" t="s">
         <v>74</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AT1" t="s">
         <v>75</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AU1" t="s">
         <v>76</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AV1" t="s">
         <v>77</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AW1" t="s">
         <v>78</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AX1" t="s">
         <v>79</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AY1" t="s">
         <v>80</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AZ1" t="s">
         <v>81</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="BA1" t="s">
         <v>82</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="BB1" t="s">
         <v>83</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="BC1" t="s">
         <v>84</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="BD1" t="s">
         <v>85</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="BE1" t="s">
         <v>86</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="BF1" t="s">
         <v>87</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="BG1" t="s">
         <v>88</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="BH1" t="s">
         <v>89</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="BI1" t="s">
         <v>90</v>
-      </c>
-      <c r="AT1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AU1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AV1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AW1" t="s">
-        <v>94</v>
-      </c>
-      <c r="AX1" t="s">
-        <v>95</v>
-      </c>
-      <c r="AY1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AZ1" t="s">
-        <v>97</v>
-      </c>
-      <c r="BA1" t="s">
-        <v>98</v>
-      </c>
-      <c r="BB1" t="s">
-        <v>99</v>
-      </c>
-      <c r="BC1" t="s">
-        <v>100</v>
-      </c>
-      <c r="BD1" t="s">
-        <v>101</v>
-      </c>
-      <c r="BE1" t="s">
-        <v>102</v>
-      </c>
-      <c r="BF1" t="s">
-        <v>103</v>
-      </c>
-      <c r="BG1" t="s">
-        <v>104</v>
-      </c>
-      <c r="BH1" t="s">
-        <v>105</v>
-      </c>
-      <c r="BI1" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>352196399217</v>
+        <v>352196369930</v>
       </c>
       <c r="B2" s="2">
         <v>44414</v>
       </c>
       <c r="C2" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D2" s="2">
-        <v>40170</v>
+        <v>21817</v>
       </c>
       <c r="E2" s="2">
         <v>44412</v>
       </c>
       <c r="F2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>2102490745</v>
-      </c>
-      <c r="H2" s="2">
-        <v>44415</v>
-      </c>
-      <c r="I2" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="J2" s="2">
         <v>44414</v>
       </c>
+      <c r="K2" t="s">
+        <v>5</v>
+      </c>
       <c r="L2" t="s">
         <v>3</v>
       </c>
@@ -953,873 +902,547 @@
         <v>3</v>
       </c>
       <c r="AM2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AN2" s="2">
         <v>44414</v>
       </c>
-      <c r="BG2" t="s">
-        <v>0</v>
+      <c r="AO2" t="s">
+        <v>5</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>4</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>10</v>
+      </c>
+      <c r="BF2" s="2">
+        <v>44434</v>
       </c>
       <c r="BH2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BI2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>352199256520</v>
+        <v>352196525064</v>
       </c>
       <c r="B3" s="2">
-        <v>44439</v>
+        <v>44417</v>
       </c>
       <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="2">
+        <v>37070</v>
+      </c>
+      <c r="E3" s="2">
+        <v>44410</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="2">
+        <v>44417</v>
+      </c>
+      <c r="K3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN3" s="2">
+        <v>44417</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>5</v>
+      </c>
+      <c r="BD3" t="s">
+        <v>6</v>
+      </c>
+      <c r="BE3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="2">
-        <v>35130</v>
-      </c>
-      <c r="E3" s="2">
-        <v>44436</v>
-      </c>
-      <c r="F3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3">
-        <v>2102053606</v>
-      </c>
-      <c r="H3" s="2">
-        <v>44314</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="BF3" s="2">
+        <v>44508</v>
+      </c>
+      <c r="BH3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BI3" t="s">
         <v>2</v>
-      </c>
-      <c r="J3" s="2">
-        <v>44439</v>
-      </c>
-      <c r="K3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L3" t="s">
-        <v>10</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>10</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AN3" s="2">
-        <v>44439</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>9</v>
-      </c>
-      <c r="BG3" t="s">
-        <v>7</v>
-      </c>
-      <c r="BH3" t="s">
-        <v>5</v>
-      </c>
-      <c r="BI3" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>352199272995</v>
+        <v>352196574713</v>
       </c>
       <c r="B4" s="2">
-        <v>44439</v>
+        <v>44417</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D4" s="2">
-        <v>38115</v>
+        <v>33412</v>
       </c>
       <c r="E4" s="2">
-        <v>44439</v>
+        <v>44415</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4">
-        <v>2102352948</v>
-      </c>
-      <c r="H4" s="2">
-        <v>44378</v>
-      </c>
-      <c r="I4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="2">
+        <v>44417</v>
+      </c>
+      <c r="K4" t="s">
+        <v>5</v>
+      </c>
+      <c r="L4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN4" s="2">
+        <v>44417</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>5</v>
+      </c>
+      <c r="BD4" t="s">
+        <v>6</v>
+      </c>
+      <c r="BE4" t="s">
+        <v>7</v>
+      </c>
+      <c r="BF4" s="2">
+        <v>44507</v>
+      </c>
+      <c r="BH4" t="s">
+        <v>1</v>
+      </c>
+      <c r="BI4" t="s">
         <v>2</v>
-      </c>
-      <c r="J4" s="2">
-        <v>44440</v>
-      </c>
-      <c r="K4" t="s">
-        <v>9</v>
-      </c>
-      <c r="L4" t="s">
-        <v>10</v>
-      </c>
-      <c r="AL4" t="s">
-        <v>10</v>
-      </c>
-      <c r="AM4" t="s">
-        <v>4</v>
-      </c>
-      <c r="AN4" s="2">
-        <v>44440</v>
-      </c>
-      <c r="AO4" t="s">
-        <v>9</v>
-      </c>
-      <c r="BD4" t="s">
-        <v>13</v>
-      </c>
-      <c r="BE4" t="s">
-        <v>14</v>
-      </c>
-      <c r="BF4" s="2">
-        <v>44461</v>
-      </c>
-      <c r="BG4" t="s">
-        <v>11</v>
-      </c>
-      <c r="BH4" t="s">
-        <v>5</v>
-      </c>
-      <c r="BI4" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>352195818007</v>
+        <v>352197260972</v>
       </c>
       <c r="B5" s="2">
-        <v>44410</v>
+        <v>44422</v>
       </c>
       <c r="C5" t="s">
         <v>15</v>
       </c>
       <c r="D5" s="2">
-        <v>32058</v>
+        <v>24168</v>
       </c>
       <c r="E5" s="2">
-        <v>44407</v>
+        <v>44418</v>
       </c>
       <c r="F5" t="s">
         <v>16</v>
       </c>
       <c r="J5" s="2">
-        <v>44410</v>
+        <v>44422</v>
       </c>
       <c r="K5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="L5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN5" s="2">
+        <v>44422</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>5</v>
+      </c>
+      <c r="BD5" t="s">
+        <v>4</v>
+      </c>
+      <c r="BE5" t="s">
         <v>10</v>
       </c>
-      <c r="AL5" t="s">
-        <v>10</v>
-      </c>
-      <c r="AM5" t="s">
-        <v>4</v>
-      </c>
-      <c r="AN5" s="2">
-        <v>44410</v>
-      </c>
-      <c r="AO5" t="s">
-        <v>17</v>
-      </c>
-      <c r="BD5" t="s">
-        <v>18</v>
-      </c>
-      <c r="BE5" t="s">
-        <v>19</v>
-      </c>
       <c r="BF5" s="2">
-        <v>44505</v>
+        <v>44491</v>
       </c>
       <c r="BH5" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BI5" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>352195974142</v>
+        <v>352197646982</v>
       </c>
       <c r="B6" s="2">
-        <v>44411</v>
+        <v>44425</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D6" s="2">
-        <v>36020</v>
+        <v>16757</v>
       </c>
       <c r="E6" s="2">
-        <v>44405</v>
+        <v>44421</v>
       </c>
       <c r="F6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="J6" s="2">
-        <v>44411</v>
+        <v>44426</v>
       </c>
       <c r="K6" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="L6" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN6" s="2">
+        <v>44426</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>5</v>
+      </c>
+      <c r="BD6" t="s">
+        <v>4</v>
+      </c>
+      <c r="BE6" t="s">
         <v>10</v>
       </c>
-      <c r="AL6" t="s">
-        <v>10</v>
-      </c>
-      <c r="AM6" t="s">
-        <v>4</v>
-      </c>
-      <c r="AN6" s="2">
-        <v>44411</v>
-      </c>
-      <c r="AO6" t="s">
-        <v>17</v>
+      <c r="BF6" s="2">
+        <v>44442</v>
       </c>
       <c r="BH6" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BI6" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>352196369930</v>
+        <v>352198014971</v>
       </c>
       <c r="B7" s="2">
-        <v>44414</v>
+        <v>44428</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D7" s="2">
-        <v>21817</v>
+        <v>31433</v>
       </c>
       <c r="E7" s="2">
-        <v>44412</v>
+        <v>44426</v>
       </c>
       <c r="F7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J7" s="2">
-        <v>44414</v>
+        <v>44428</v>
       </c>
       <c r="K7" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="L7" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="AL7" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="AM7" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AN7" s="2">
-        <v>44414</v>
+        <v>44428</v>
       </c>
       <c r="AO7" t="s">
-        <v>17</v>
-      </c>
-      <c r="BD7" t="s">
-        <v>13</v>
-      </c>
-      <c r="BE7" t="s">
-        <v>24</v>
-      </c>
-      <c r="BF7" s="2">
-        <v>44434</v>
+        <v>5</v>
       </c>
       <c r="BH7" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BI7" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>352196525064</v>
+        <v>352198130100</v>
       </c>
       <c r="B8" s="2">
-        <v>44417</v>
+        <v>44429</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D8" s="2">
-        <v>37070</v>
+        <v>37636</v>
       </c>
       <c r="E8" s="2">
-        <v>44410</v>
+        <v>44423</v>
       </c>
       <c r="F8" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="J8" s="2">
-        <v>44417</v>
+        <v>25569</v>
       </c>
       <c r="K8" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="L8" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="AL8" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="AM8" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AN8" s="2">
-        <v>44417</v>
+        <v>25569</v>
       </c>
       <c r="AO8" t="s">
-        <v>17</v>
-      </c>
-      <c r="BD8" t="s">
-        <v>18</v>
-      </c>
-      <c r="BE8" t="s">
-        <v>19</v>
-      </c>
-      <c r="BF8" s="2">
-        <v>44508</v>
+        <v>5</v>
       </c>
       <c r="BH8" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BI8" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>352196574713</v>
+        <v>352198521060</v>
       </c>
       <c r="B9" s="2">
-        <v>44417</v>
+        <v>44433</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D9" s="2">
-        <v>33412</v>
+        <v>35380</v>
       </c>
       <c r="E9" s="2">
-        <v>44415</v>
+        <v>44427</v>
       </c>
       <c r="F9" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="J9" s="2">
-        <v>44417</v>
+        <v>44433</v>
       </c>
       <c r="K9" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="L9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN9" s="2">
+        <v>44433</v>
+      </c>
+      <c r="AO9" t="s">
+        <v>5</v>
+      </c>
+      <c r="BD9" t="s">
+        <v>4</v>
+      </c>
+      <c r="BE9" t="s">
         <v>10</v>
       </c>
-      <c r="AL9" t="s">
-        <v>10</v>
-      </c>
-      <c r="AM9" t="s">
-        <v>4</v>
-      </c>
-      <c r="AN9" s="2">
-        <v>44417</v>
-      </c>
-      <c r="AO9" t="s">
-        <v>17</v>
-      </c>
-      <c r="BD9" t="s">
-        <v>18</v>
-      </c>
-      <c r="BE9" t="s">
-        <v>19</v>
-      </c>
       <c r="BF9" s="2">
-        <v>44507</v>
+        <v>44442</v>
       </c>
       <c r="BH9" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BI9" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>352197192282</v>
+        <v>352199242144</v>
       </c>
       <c r="B10" s="2">
-        <v>44421</v>
+        <v>44439</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D10" s="2">
-        <v>16814</v>
+        <v>25311</v>
       </c>
       <c r="E10" s="2">
-        <v>44419</v>
+        <v>44438</v>
       </c>
       <c r="F10" t="s">
-        <v>30</v>
+        <v>25</v>
+      </c>
+      <c r="J10" s="2">
+        <v>44439</v>
       </c>
       <c r="K10" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="L10" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="AL10" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="AM10" t="s">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="AN10" s="2">
+        <v>44439</v>
       </c>
       <c r="AO10" t="s">
-        <v>17</v>
-      </c>
-      <c r="BD10" t="s">
-        <v>13</v>
-      </c>
-      <c r="BE10" t="s">
-        <v>24</v>
-      </c>
-      <c r="BF10" s="2">
-        <v>44431</v>
+        <v>5</v>
       </c>
       <c r="BH10" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BI10" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>352197260972</v>
+        <v>352199306841</v>
       </c>
       <c r="B11" s="2">
-        <v>44422</v>
+        <v>44439</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D11" s="2">
-        <v>24168</v>
+        <v>31198</v>
       </c>
       <c r="E11" s="2">
-        <v>44418</v>
+        <v>44435</v>
       </c>
       <c r="F11" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="J11" s="2">
-        <v>44422</v>
+        <v>44439</v>
       </c>
       <c r="K11" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="L11" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="AL11" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="AM11" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AN11" s="2">
-        <v>44422</v>
+        <v>44439</v>
       </c>
       <c r="AO11" t="s">
-        <v>17</v>
-      </c>
-      <c r="BD11" t="s">
-        <v>13</v>
-      </c>
-      <c r="BE11" t="s">
-        <v>24</v>
-      </c>
-      <c r="BF11" s="2">
-        <v>44491</v>
+        <v>5</v>
       </c>
       <c r="BH11" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BI11" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>352197646982</v>
+        <v>352199309250</v>
       </c>
       <c r="B12" s="2">
-        <v>44425</v>
+        <v>44439</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D12" s="2">
-        <v>16757</v>
+        <v>39780</v>
       </c>
       <c r="E12" s="2">
-        <v>44421</v>
+        <v>44434</v>
       </c>
       <c r="F12" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="J12" s="2">
-        <v>44426</v>
+        <v>44439</v>
       </c>
       <c r="K12" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="L12" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="AL12" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="AM12" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AN12" s="2">
-        <v>44426</v>
+        <v>44439</v>
       </c>
       <c r="AO12" t="s">
-        <v>17</v>
-      </c>
-      <c r="BD12" t="s">
-        <v>13</v>
-      </c>
-      <c r="BE12" t="s">
-        <v>24</v>
-      </c>
-      <c r="BF12" s="2">
-        <v>44442</v>
+        <v>5</v>
       </c>
       <c r="BH12" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BI12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>352198014971</v>
-      </c>
-      <c r="B13" s="2">
-        <v>44428</v>
-      </c>
-      <c r="C13" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" s="2">
-        <v>31433</v>
-      </c>
-      <c r="E13" s="2">
-        <v>44426</v>
-      </c>
-      <c r="F13" t="s">
-        <v>36</v>
-      </c>
-      <c r="J13" s="2">
-        <v>44428</v>
-      </c>
-      <c r="K13" t="s">
-        <v>17</v>
-      </c>
-      <c r="L13" t="s">
-        <v>10</v>
-      </c>
-      <c r="AL13" t="s">
-        <v>10</v>
-      </c>
-      <c r="AM13" t="s">
-        <v>4</v>
-      </c>
-      <c r="AN13" s="2">
-        <v>44428</v>
-      </c>
-      <c r="AO13" t="s">
-        <v>17</v>
-      </c>
-      <c r="BH13" t="s">
-        <v>5</v>
-      </c>
-      <c r="BI13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>352198130100</v>
-      </c>
-      <c r="B14" s="2">
-        <v>44429</v>
-      </c>
-      <c r="C14" t="s">
-        <v>37</v>
-      </c>
-      <c r="D14" s="2">
-        <v>37636</v>
-      </c>
-      <c r="E14" s="2">
-        <v>44423</v>
-      </c>
-      <c r="F14" t="s">
-        <v>32</v>
-      </c>
-      <c r="J14" s="2">
-        <v>25569</v>
-      </c>
-      <c r="K14" t="s">
-        <v>17</v>
-      </c>
-      <c r="L14" t="s">
-        <v>10</v>
-      </c>
-      <c r="AL14" t="s">
-        <v>10</v>
-      </c>
-      <c r="AM14" t="s">
-        <v>4</v>
-      </c>
-      <c r="AN14" s="2">
-        <v>25569</v>
-      </c>
-      <c r="AO14" t="s">
-        <v>17</v>
-      </c>
-      <c r="BH14" t="s">
-        <v>5</v>
-      </c>
-      <c r="BI14" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>352198521060</v>
-      </c>
-      <c r="B15" s="2">
-        <v>44433</v>
-      </c>
-      <c r="C15" t="s">
-        <v>38</v>
-      </c>
-      <c r="D15" s="2">
-        <v>35380</v>
-      </c>
-      <c r="E15" s="2">
-        <v>44427</v>
-      </c>
-      <c r="F15" t="s">
-        <v>39</v>
-      </c>
-      <c r="J15" s="2">
-        <v>44433</v>
-      </c>
-      <c r="K15" t="s">
-        <v>17</v>
-      </c>
-      <c r="L15" t="s">
-        <v>10</v>
-      </c>
-      <c r="AL15" t="s">
-        <v>10</v>
-      </c>
-      <c r="AM15" t="s">
-        <v>4</v>
-      </c>
-      <c r="AN15" s="2">
-        <v>44433</v>
-      </c>
-      <c r="AO15" t="s">
-        <v>17</v>
-      </c>
-      <c r="BD15" t="s">
-        <v>13</v>
-      </c>
-      <c r="BE15" t="s">
-        <v>24</v>
-      </c>
-      <c r="BF15" s="2">
-        <v>44442</v>
-      </c>
-      <c r="BH15" t="s">
-        <v>5</v>
-      </c>
-      <c r="BI15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>352199242144</v>
-      </c>
-      <c r="B16" s="2">
-        <v>44439</v>
-      </c>
-      <c r="C16" t="s">
-        <v>40</v>
-      </c>
-      <c r="D16" s="2">
-        <v>25311</v>
-      </c>
-      <c r="E16" s="2">
-        <v>44438</v>
-      </c>
-      <c r="F16" t="s">
-        <v>41</v>
-      </c>
-      <c r="J16" s="2">
-        <v>44439</v>
-      </c>
-      <c r="K16" t="s">
-        <v>17</v>
-      </c>
-      <c r="L16" t="s">
-        <v>10</v>
-      </c>
-      <c r="AL16" t="s">
-        <v>10</v>
-      </c>
-      <c r="AM16" t="s">
-        <v>4</v>
-      </c>
-      <c r="AN16" s="2">
-        <v>44439</v>
-      </c>
-      <c r="AO16" t="s">
-        <v>17</v>
-      </c>
-      <c r="BH16" t="s">
-        <v>5</v>
-      </c>
-      <c r="BI16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>352199306841</v>
-      </c>
-      <c r="B17" s="2">
-        <v>44439</v>
-      </c>
-      <c r="C17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D17" s="2">
-        <v>31198</v>
-      </c>
-      <c r="E17" s="2">
-        <v>44435</v>
-      </c>
-      <c r="F17" t="s">
-        <v>43</v>
-      </c>
-      <c r="J17" s="2">
-        <v>44439</v>
-      </c>
-      <c r="K17" t="s">
-        <v>17</v>
-      </c>
-      <c r="L17" t="s">
-        <v>10</v>
-      </c>
-      <c r="AL17" t="s">
-        <v>10</v>
-      </c>
-      <c r="AM17" t="s">
-        <v>4</v>
-      </c>
-      <c r="AN17" s="2">
-        <v>44439</v>
-      </c>
-      <c r="AO17" t="s">
-        <v>17</v>
-      </c>
-      <c r="BH17" t="s">
-        <v>5</v>
-      </c>
-      <c r="BI17" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>352199309250</v>
-      </c>
-      <c r="B18" s="2">
-        <v>44439</v>
-      </c>
-      <c r="C18" t="s">
-        <v>44</v>
-      </c>
-      <c r="D18" s="2">
-        <v>39780</v>
-      </c>
-      <c r="E18" s="2">
-        <v>44434</v>
-      </c>
-      <c r="F18" t="s">
-        <v>45</v>
-      </c>
-      <c r="J18" s="2">
-        <v>44439</v>
-      </c>
-      <c r="K18" t="s">
-        <v>17</v>
-      </c>
-      <c r="L18" t="s">
-        <v>10</v>
-      </c>
-      <c r="AL18" t="s">
-        <v>10</v>
-      </c>
-      <c r="AM18" t="s">
-        <v>4</v>
-      </c>
-      <c r="AN18" s="2">
-        <v>44439</v>
-      </c>
-      <c r="AO18" t="s">
-        <v>17</v>
-      </c>
-      <c r="BH18" t="s">
-        <v>5</v>
-      </c>
-      <c r="BI18" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:BI12" xr:uid="{F65DDA92-2BE3-4B27-B6F3-DDAD0E7A1265}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
--- a/fechamento_2021/fechamento_agosto/PositivosAgosto.xlsx
+++ b/fechamento_2021/fechamento_agosto/PositivosAgosto.xlsx
@@ -1,23 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rodolfo\Documents\Uipath\rpa_esus_edge\fechamento_2021\fechamento_agosto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\csv\esus\fechamento_agosto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{275CB5D9-7FF8-46FC-A842-ED623C209F16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74C3901B-FDF6-428D-B829-F81A0592461A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D165F2F0-A88A-44DC-BDB8-A52AF476A83F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D165F2F0-A88A-44DC-BDB8-A52AF476A83F}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Plan1!$A$1:$BI$12</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -28,7 +25,19 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="107">
+  <si>
+    <t>YASMIM ALVES SACRAMENTO</t>
+  </si>
+  <si>
+    <t>Febre, Coriza</t>
+  </si>
+  <si>
+    <t>DETECTADO</t>
+  </si>
+  <si>
+    <t>Coletado</t>
+  </si>
   <si>
     <t>RT-PCR</t>
   </si>
@@ -39,12 +48,36 @@
     <t>SIM</t>
   </si>
   <si>
+    <t>GABRIEL FRANCISCO ALVES</t>
+  </si>
+  <si>
+    <t>Dor de Garganta, Tosse, Dor de Cabeca, Disturbios Gustativos, Disturbios Olfativos</t>
+  </si>
+  <si>
+    <t>Não detectável</t>
+  </si>
+  <si>
     <t>Concluído</t>
   </si>
   <si>
+    <t>GIOVANNA BRAGA DE SOUSA</t>
+  </si>
+  <si>
+    <t>Assintomatico</t>
+  </si>
+  <si>
     <t>Em tratamento domiciliar</t>
   </si>
   <si>
+    <t>Descartado</t>
+  </si>
+  <si>
+    <t>AMANDA LEITE CAETANO</t>
+  </si>
+  <si>
+    <t>Coriza, Disturbios Olfativos, Disturbios Gustativos, Tosse, Febre</t>
+  </si>
+  <si>
     <t>Detectável</t>
   </si>
   <si>
@@ -54,6 +87,12 @@
     <t>Confirmado por Critério Clínico</t>
   </si>
   <si>
+    <t>JOAO VITOR BAPTISTA CAMPOS</t>
+  </si>
+  <si>
+    <t>Coriza, Outros</t>
+  </si>
+  <si>
     <t>OSMAR BISPO DA SILVA</t>
   </si>
   <si>
@@ -73,6 +112,12 @@
   </si>
   <si>
     <t>Disturbios Olfativos, Disturbios Gustativos, Dor de Cabeca, Tosse, Febre</t>
+  </si>
+  <si>
+    <t>LAURA BARBOSA LISBOA</t>
+  </si>
+  <si>
+    <t>Dor de Garganta, Febre, Dor de Cabeca</t>
   </si>
   <si>
     <t>MARIA ELCI GOMES DORNELAS</t>
@@ -654,10 +699,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F65DDA92-2BE3-4B27-B6F3-DDAD0E7A1265}">
-  <dimension ref="A1:BI12"/>
+  <dimension ref="A1:BI18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -685,216 +730,222 @@
     <col min="61" max="61" width="4.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:61" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="B1" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="C1" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="D1" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="E1" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="F1" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="G1" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="H1" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="I1" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="J1" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="K1" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="L1" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="M1" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="N1" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="O1" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="P1" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="Q1" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="R1" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="S1" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="T1" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="U1" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="V1" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="W1" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="X1" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="Y1" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="Z1" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="AA1" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="AB1" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="AC1" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="AD1" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="AE1" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="AF1" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="AG1" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="AH1" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="AI1" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="AJ1" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="AK1" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="AL1" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="AM1" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="AN1" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="AO1" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="AP1" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="AQ1" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="AR1" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="AS1" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="AT1" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="AU1" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="AV1" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="AW1" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="AX1" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="AY1" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="AZ1" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="BA1" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="BB1" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="BC1" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="BD1" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="BE1" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="BF1" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="BG1" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="BH1" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="BI1" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>352196369930</v>
+        <v>352196399217</v>
       </c>
       <c r="B2" s="2">
         <v>44414</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D2" s="2">
-        <v>21817</v>
+        <v>40170</v>
       </c>
       <c r="E2" s="2">
         <v>44412</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>2102490745</v>
+      </c>
+      <c r="H2" s="2">
+        <v>44415</v>
+      </c>
+      <c r="I2" t="s">
+        <v>2</v>
       </c>
       <c r="J2" s="2">
         <v>44414</v>
       </c>
-      <c r="K2" t="s">
-        <v>5</v>
-      </c>
       <c r="L2" t="s">
         <v>3</v>
       </c>
@@ -902,547 +953,873 @@
         <v>3</v>
       </c>
       <c r="AM2" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AN2" s="2">
         <v>44414</v>
       </c>
-      <c r="AO2" t="s">
+      <c r="BG2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BH2" t="s">
         <v>5</v>
       </c>
-      <c r="BD2" t="s">
-        <v>4</v>
-      </c>
-      <c r="BE2" t="s">
-        <v>10</v>
-      </c>
-      <c r="BF2" s="2">
-        <v>44434</v>
-      </c>
-      <c r="BH2" t="s">
-        <v>1</v>
-      </c>
       <c r="BI2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>352196525064</v>
+        <v>352199256520</v>
       </c>
       <c r="B3" s="2">
-        <v>44417</v>
+        <v>44439</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D3" s="2">
-        <v>37070</v>
+        <v>35130</v>
       </c>
       <c r="E3" s="2">
-        <v>44410</v>
+        <v>44436</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>8</v>
+      </c>
+      <c r="G3">
+        <v>2102053606</v>
+      </c>
+      <c r="H3" s="2">
+        <v>44314</v>
+      </c>
+      <c r="I3" t="s">
+        <v>2</v>
       </c>
       <c r="J3" s="2">
-        <v>44417</v>
+        <v>44439</v>
       </c>
       <c r="K3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AN3" s="2">
+        <v>44439</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>9</v>
+      </c>
+      <c r="BG3" t="s">
+        <v>7</v>
+      </c>
+      <c r="BH3" t="s">
         <v>5</v>
       </c>
-      <c r="L3" t="s">
-        <v>3</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>3</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AN3" s="2">
-        <v>44417</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>5</v>
-      </c>
-      <c r="BD3" t="s">
+      <c r="BI3" t="s">
         <v>6</v>
-      </c>
-      <c r="BE3" t="s">
-        <v>7</v>
-      </c>
-      <c r="BF3" s="2">
-        <v>44508</v>
-      </c>
-      <c r="BH3" t="s">
-        <v>1</v>
-      </c>
-      <c r="BI3" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>352196574713</v>
+        <v>352199272995</v>
       </c>
       <c r="B4" s="2">
-        <v>44417</v>
+        <v>44439</v>
       </c>
       <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="2">
+        <v>38115</v>
+      </c>
+      <c r="E4" s="2">
+        <v>44439</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4">
+        <v>2102352948</v>
+      </c>
+      <c r="H4" s="2">
+        <v>44378</v>
+      </c>
+      <c r="I4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J4" s="2">
+        <v>44440</v>
+      </c>
+      <c r="K4" t="s">
+        <v>9</v>
+      </c>
+      <c r="L4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>4</v>
+      </c>
+      <c r="AN4" s="2">
+        <v>44440</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>9</v>
+      </c>
+      <c r="BD4" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="2">
-        <v>33412</v>
-      </c>
-      <c r="E4" s="2">
-        <v>44415</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="BE4" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="2">
-        <v>44417</v>
-      </c>
-      <c r="K4" t="s">
+      <c r="BF4" s="2">
+        <v>44461</v>
+      </c>
+      <c r="BG4" t="s">
+        <v>11</v>
+      </c>
+      <c r="BH4" t="s">
         <v>5</v>
       </c>
-      <c r="L4" t="s">
-        <v>3</v>
-      </c>
-      <c r="AL4" t="s">
-        <v>3</v>
-      </c>
-      <c r="AM4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AN4" s="2">
-        <v>44417</v>
-      </c>
-      <c r="AO4" t="s">
-        <v>5</v>
-      </c>
-      <c r="BD4" t="s">
+      <c r="BI4" t="s">
         <v>6</v>
-      </c>
-      <c r="BE4" t="s">
-        <v>7</v>
-      </c>
-      <c r="BF4" s="2">
-        <v>44507</v>
-      </c>
-      <c r="BH4" t="s">
-        <v>1</v>
-      </c>
-      <c r="BI4" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>352197260972</v>
+        <v>352195818007</v>
       </c>
       <c r="B5" s="2">
-        <v>44422</v>
+        <v>44410</v>
       </c>
       <c r="C5" t="s">
         <v>15</v>
       </c>
       <c r="D5" s="2">
-        <v>24168</v>
+        <v>32058</v>
       </c>
       <c r="E5" s="2">
-        <v>44418</v>
+        <v>44407</v>
       </c>
       <c r="F5" t="s">
         <v>16</v>
       </c>
       <c r="J5" s="2">
-        <v>44422</v>
+        <v>44410</v>
       </c>
       <c r="K5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L5" t="s">
+        <v>10</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>10</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AN5" s="2">
+        <v>44410</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>17</v>
+      </c>
+      <c r="BD5" t="s">
+        <v>18</v>
+      </c>
+      <c r="BE5" t="s">
+        <v>19</v>
+      </c>
+      <c r="BF5" s="2">
+        <v>44505</v>
+      </c>
+      <c r="BH5" t="s">
         <v>5</v>
       </c>
-      <c r="L5" t="s">
-        <v>3</v>
-      </c>
-      <c r="AL5" t="s">
-        <v>3</v>
-      </c>
-      <c r="AM5" t="s">
-        <v>0</v>
-      </c>
-      <c r="AN5" s="2">
-        <v>44422</v>
-      </c>
-      <c r="AO5" t="s">
-        <v>5</v>
-      </c>
-      <c r="BD5" t="s">
-        <v>4</v>
-      </c>
-      <c r="BE5" t="s">
-        <v>10</v>
-      </c>
-      <c r="BF5" s="2">
-        <v>44491</v>
-      </c>
-      <c r="BH5" t="s">
-        <v>1</v>
-      </c>
       <c r="BI5" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>352197646982</v>
+        <v>352195974142</v>
       </c>
       <c r="B6" s="2">
-        <v>44425</v>
+        <v>44411</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D6" s="2">
-        <v>16757</v>
+        <v>36020</v>
       </c>
       <c r="E6" s="2">
-        <v>44421</v>
+        <v>44405</v>
       </c>
       <c r="F6" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="J6" s="2">
-        <v>44426</v>
+        <v>44411</v>
       </c>
       <c r="K6" t="s">
+        <v>17</v>
+      </c>
+      <c r="L6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>4</v>
+      </c>
+      <c r="AN6" s="2">
+        <v>44411</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>17</v>
+      </c>
+      <c r="BH6" t="s">
         <v>5</v>
       </c>
-      <c r="L6" t="s">
-        <v>3</v>
-      </c>
-      <c r="AL6" t="s">
-        <v>3</v>
-      </c>
-      <c r="AM6" t="s">
-        <v>0</v>
-      </c>
-      <c r="AN6" s="2">
-        <v>44426</v>
-      </c>
-      <c r="AO6" t="s">
-        <v>5</v>
-      </c>
-      <c r="BD6" t="s">
-        <v>4</v>
-      </c>
-      <c r="BE6" t="s">
-        <v>10</v>
-      </c>
-      <c r="BF6" s="2">
-        <v>44442</v>
-      </c>
-      <c r="BH6" t="s">
-        <v>1</v>
-      </c>
       <c r="BI6" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>352198014971</v>
+        <v>352196369930</v>
       </c>
       <c r="B7" s="2">
-        <v>44428</v>
+        <v>44414</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D7" s="2">
-        <v>31433</v>
+        <v>21817</v>
       </c>
       <c r="E7" s="2">
-        <v>44426</v>
+        <v>44412</v>
       </c>
       <c r="F7" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J7" s="2">
-        <v>44428</v>
+        <v>44414</v>
       </c>
       <c r="K7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L7" t="s">
+        <v>10</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>10</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>4</v>
+      </c>
+      <c r="AN7" s="2">
+        <v>44414</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>17</v>
+      </c>
+      <c r="BD7" t="s">
+        <v>13</v>
+      </c>
+      <c r="BE7" t="s">
+        <v>24</v>
+      </c>
+      <c r="BF7" s="2">
+        <v>44434</v>
+      </c>
+      <c r="BH7" t="s">
         <v>5</v>
       </c>
-      <c r="L7" t="s">
-        <v>3</v>
-      </c>
-      <c r="AL7" t="s">
-        <v>3</v>
-      </c>
-      <c r="AM7" t="s">
-        <v>0</v>
-      </c>
-      <c r="AN7" s="2">
-        <v>44428</v>
-      </c>
-      <c r="AO7" t="s">
-        <v>5</v>
-      </c>
-      <c r="BH7" t="s">
-        <v>1</v>
-      </c>
       <c r="BI7" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>352198130100</v>
+        <v>352196525064</v>
       </c>
       <c r="B8" s="2">
-        <v>44429</v>
+        <v>44417</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D8" s="2">
-        <v>37636</v>
+        <v>37070</v>
       </c>
       <c r="E8" s="2">
-        <v>44423</v>
+        <v>44410</v>
       </c>
       <c r="F8" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="J8" s="2">
-        <v>25569</v>
+        <v>44417</v>
       </c>
       <c r="K8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>4</v>
+      </c>
+      <c r="AN8" s="2">
+        <v>44417</v>
+      </c>
+      <c r="AO8" t="s">
+        <v>17</v>
+      </c>
+      <c r="BD8" t="s">
+        <v>18</v>
+      </c>
+      <c r="BE8" t="s">
+        <v>19</v>
+      </c>
+      <c r="BF8" s="2">
+        <v>44508</v>
+      </c>
+      <c r="BH8" t="s">
         <v>5</v>
       </c>
-      <c r="L8" t="s">
-        <v>3</v>
-      </c>
-      <c r="AL8" t="s">
-        <v>3</v>
-      </c>
-      <c r="AM8" t="s">
-        <v>0</v>
-      </c>
-      <c r="AN8" s="2">
-        <v>25569</v>
-      </c>
-      <c r="AO8" t="s">
-        <v>5</v>
-      </c>
-      <c r="BH8" t="s">
-        <v>1</v>
-      </c>
       <c r="BI8" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>352198521060</v>
+        <v>352196574713</v>
       </c>
       <c r="B9" s="2">
-        <v>44433</v>
+        <v>44417</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D9" s="2">
-        <v>35380</v>
+        <v>33412</v>
       </c>
       <c r="E9" s="2">
-        <v>44427</v>
+        <v>44415</v>
       </c>
       <c r="F9" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="J9" s="2">
-        <v>44433</v>
+        <v>44417</v>
       </c>
       <c r="K9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L9" t="s">
+        <v>10</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>10</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>4</v>
+      </c>
+      <c r="AN9" s="2">
+        <v>44417</v>
+      </c>
+      <c r="AO9" t="s">
+        <v>17</v>
+      </c>
+      <c r="BD9" t="s">
+        <v>18</v>
+      </c>
+      <c r="BE9" t="s">
+        <v>19</v>
+      </c>
+      <c r="BF9" s="2">
+        <v>44507</v>
+      </c>
+      <c r="BH9" t="s">
         <v>5</v>
       </c>
-      <c r="L9" t="s">
-        <v>3</v>
-      </c>
-      <c r="AL9" t="s">
-        <v>3</v>
-      </c>
-      <c r="AM9" t="s">
-        <v>0</v>
-      </c>
-      <c r="AN9" s="2">
-        <v>44433</v>
-      </c>
-      <c r="AO9" t="s">
-        <v>5</v>
-      </c>
-      <c r="BD9" t="s">
-        <v>4</v>
-      </c>
-      <c r="BE9" t="s">
-        <v>10</v>
-      </c>
-      <c r="BF9" s="2">
-        <v>44442</v>
-      </c>
-      <c r="BH9" t="s">
-        <v>1</v>
-      </c>
       <c r="BI9" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>352199242144</v>
+        <v>352197192282</v>
       </c>
       <c r="B10" s="2">
-        <v>44439</v>
+        <v>44421</v>
       </c>
       <c r="C10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="2">
+        <v>16814</v>
+      </c>
+      <c r="E10" s="2">
+        <v>44419</v>
+      </c>
+      <c r="F10" t="s">
+        <v>30</v>
+      </c>
+      <c r="K10" t="s">
+        <v>17</v>
+      </c>
+      <c r="L10" t="s">
+        <v>10</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>10</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>4</v>
+      </c>
+      <c r="AO10" t="s">
+        <v>17</v>
+      </c>
+      <c r="BD10" t="s">
+        <v>13</v>
+      </c>
+      <c r="BE10" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="2">
-        <v>25311</v>
-      </c>
-      <c r="E10" s="2">
-        <v>44438</v>
-      </c>
-      <c r="F10" t="s">
-        <v>25</v>
-      </c>
-      <c r="J10" s="2">
-        <v>44439</v>
-      </c>
-      <c r="K10" t="s">
+      <c r="BF10" s="2">
+        <v>44431</v>
+      </c>
+      <c r="BH10" t="s">
         <v>5</v>
       </c>
-      <c r="L10" t="s">
-        <v>3</v>
-      </c>
-      <c r="AL10" t="s">
-        <v>3</v>
-      </c>
-      <c r="AM10" t="s">
-        <v>0</v>
-      </c>
-      <c r="AN10" s="2">
-        <v>44439</v>
-      </c>
-      <c r="AO10" t="s">
-        <v>5</v>
-      </c>
-      <c r="BH10" t="s">
-        <v>1</v>
-      </c>
       <c r="BI10" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>352199306841</v>
+        <v>352197260972</v>
       </c>
       <c r="B11" s="2">
-        <v>44439</v>
+        <v>44422</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D11" s="2">
-        <v>31198</v>
+        <v>24168</v>
       </c>
       <c r="E11" s="2">
-        <v>44435</v>
+        <v>44418</v>
       </c>
       <c r="F11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="J11" s="2">
-        <v>44439</v>
+        <v>44422</v>
       </c>
       <c r="K11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>4</v>
+      </c>
+      <c r="AN11" s="2">
+        <v>44422</v>
+      </c>
+      <c r="AO11" t="s">
+        <v>17</v>
+      </c>
+      <c r="BD11" t="s">
+        <v>13</v>
+      </c>
+      <c r="BE11" t="s">
+        <v>24</v>
+      </c>
+      <c r="BF11" s="2">
+        <v>44491</v>
+      </c>
+      <c r="BH11" t="s">
         <v>5</v>
       </c>
-      <c r="L11" t="s">
-        <v>3</v>
-      </c>
-      <c r="AL11" t="s">
-        <v>3</v>
-      </c>
-      <c r="AM11" t="s">
-        <v>0</v>
-      </c>
-      <c r="AN11" s="2">
-        <v>44439</v>
-      </c>
-      <c r="AO11" t="s">
-        <v>5</v>
-      </c>
-      <c r="BH11" t="s">
-        <v>1</v>
-      </c>
       <c r="BI11" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
+        <v>352197646982</v>
+      </c>
+      <c r="B12" s="2">
+        <v>44425</v>
+      </c>
+      <c r="C12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="2">
+        <v>16757</v>
+      </c>
+      <c r="E12" s="2">
+        <v>44421</v>
+      </c>
+      <c r="F12" t="s">
+        <v>34</v>
+      </c>
+      <c r="J12" s="2">
+        <v>44426</v>
+      </c>
+      <c r="K12" t="s">
+        <v>17</v>
+      </c>
+      <c r="L12" t="s">
+        <v>10</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>10</v>
+      </c>
+      <c r="AM12" t="s">
+        <v>4</v>
+      </c>
+      <c r="AN12" s="2">
+        <v>44426</v>
+      </c>
+      <c r="AO12" t="s">
+        <v>17</v>
+      </c>
+      <c r="BD12" t="s">
+        <v>13</v>
+      </c>
+      <c r="BE12" t="s">
+        <v>24</v>
+      </c>
+      <c r="BF12" s="2">
+        <v>44442</v>
+      </c>
+      <c r="BH12" t="s">
+        <v>5</v>
+      </c>
+      <c r="BI12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>352198014971</v>
+      </c>
+      <c r="B13" s="2">
+        <v>44428</v>
+      </c>
+      <c r="C13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="2">
+        <v>31433</v>
+      </c>
+      <c r="E13" s="2">
+        <v>44426</v>
+      </c>
+      <c r="F13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J13" s="2">
+        <v>44428</v>
+      </c>
+      <c r="K13" t="s">
+        <v>17</v>
+      </c>
+      <c r="L13" t="s">
+        <v>10</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>10</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>4</v>
+      </c>
+      <c r="AN13" s="2">
+        <v>44428</v>
+      </c>
+      <c r="AO13" t="s">
+        <v>17</v>
+      </c>
+      <c r="BH13" t="s">
+        <v>5</v>
+      </c>
+      <c r="BI13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>352198130100</v>
+      </c>
+      <c r="B14" s="2">
+        <v>44429</v>
+      </c>
+      <c r="C14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="2">
+        <v>37636</v>
+      </c>
+      <c r="E14" s="2">
+        <v>44423</v>
+      </c>
+      <c r="F14" t="s">
+        <v>32</v>
+      </c>
+      <c r="J14" s="2">
+        <v>25569</v>
+      </c>
+      <c r="K14" t="s">
+        <v>17</v>
+      </c>
+      <c r="L14" t="s">
+        <v>10</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>10</v>
+      </c>
+      <c r="AM14" t="s">
+        <v>4</v>
+      </c>
+      <c r="AN14" s="2">
+        <v>25569</v>
+      </c>
+      <c r="AO14" t="s">
+        <v>17</v>
+      </c>
+      <c r="BH14" t="s">
+        <v>5</v>
+      </c>
+      <c r="BI14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>352198521060</v>
+      </c>
+      <c r="B15" s="2">
+        <v>44433</v>
+      </c>
+      <c r="C15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="2">
+        <v>35380</v>
+      </c>
+      <c r="E15" s="2">
+        <v>44427</v>
+      </c>
+      <c r="F15" t="s">
+        <v>39</v>
+      </c>
+      <c r="J15" s="2">
+        <v>44433</v>
+      </c>
+      <c r="K15" t="s">
+        <v>17</v>
+      </c>
+      <c r="L15" t="s">
+        <v>10</v>
+      </c>
+      <c r="AL15" t="s">
+        <v>10</v>
+      </c>
+      <c r="AM15" t="s">
+        <v>4</v>
+      </c>
+      <c r="AN15" s="2">
+        <v>44433</v>
+      </c>
+      <c r="AO15" t="s">
+        <v>17</v>
+      </c>
+      <c r="BD15" t="s">
+        <v>13</v>
+      </c>
+      <c r="BE15" t="s">
+        <v>24</v>
+      </c>
+      <c r="BF15" s="2">
+        <v>44442</v>
+      </c>
+      <c r="BH15" t="s">
+        <v>5</v>
+      </c>
+      <c r="BI15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>352199242144</v>
+      </c>
+      <c r="B16" s="2">
+        <v>44439</v>
+      </c>
+      <c r="C16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="2">
+        <v>25311</v>
+      </c>
+      <c r="E16" s="2">
+        <v>44438</v>
+      </c>
+      <c r="F16" t="s">
+        <v>41</v>
+      </c>
+      <c r="J16" s="2">
+        <v>44439</v>
+      </c>
+      <c r="K16" t="s">
+        <v>17</v>
+      </c>
+      <c r="L16" t="s">
+        <v>10</v>
+      </c>
+      <c r="AL16" t="s">
+        <v>10</v>
+      </c>
+      <c r="AM16" t="s">
+        <v>4</v>
+      </c>
+      <c r="AN16" s="2">
+        <v>44439</v>
+      </c>
+      <c r="AO16" t="s">
+        <v>17</v>
+      </c>
+      <c r="BH16" t="s">
+        <v>5</v>
+      </c>
+      <c r="BI16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>352199306841</v>
+      </c>
+      <c r="B17" s="2">
+        <v>44439</v>
+      </c>
+      <c r="C17" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="2">
+        <v>31198</v>
+      </c>
+      <c r="E17" s="2">
+        <v>44435</v>
+      </c>
+      <c r="F17" t="s">
+        <v>43</v>
+      </c>
+      <c r="J17" s="2">
+        <v>44439</v>
+      </c>
+      <c r="K17" t="s">
+        <v>17</v>
+      </c>
+      <c r="L17" t="s">
+        <v>10</v>
+      </c>
+      <c r="AL17" t="s">
+        <v>10</v>
+      </c>
+      <c r="AM17" t="s">
+        <v>4</v>
+      </c>
+      <c r="AN17" s="2">
+        <v>44439</v>
+      </c>
+      <c r="AO17" t="s">
+        <v>17</v>
+      </c>
+      <c r="BH17" t="s">
+        <v>5</v>
+      </c>
+      <c r="BI17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
         <v>352199309250</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B18" s="2">
         <v>44439</v>
       </c>
-      <c r="C12" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="2">
+      <c r="C18" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="2">
         <v>39780</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E18" s="2">
         <v>44434</v>
       </c>
-      <c r="F12" t="s">
-        <v>29</v>
-      </c>
-      <c r="J12" s="2">
+      <c r="F18" t="s">
+        <v>45</v>
+      </c>
+      <c r="J18" s="2">
         <v>44439</v>
       </c>
-      <c r="K12" t="s">
+      <c r="K18" t="s">
+        <v>17</v>
+      </c>
+      <c r="L18" t="s">
+        <v>10</v>
+      </c>
+      <c r="AL18" t="s">
+        <v>10</v>
+      </c>
+      <c r="AM18" t="s">
+        <v>4</v>
+      </c>
+      <c r="AN18" s="2">
+        <v>44439</v>
+      </c>
+      <c r="AO18" t="s">
+        <v>17</v>
+      </c>
+      <c r="BH18" t="s">
         <v>5</v>
       </c>
-      <c r="L12" t="s">
-        <v>3</v>
-      </c>
-      <c r="AL12" t="s">
-        <v>3</v>
-      </c>
-      <c r="AM12" t="s">
-        <v>0</v>
-      </c>
-      <c r="AN12" s="2">
-        <v>44439</v>
-      </c>
-      <c r="AO12" t="s">
-        <v>5</v>
-      </c>
-      <c r="BH12" t="s">
-        <v>1</v>
-      </c>
-      <c r="BI12" t="s">
-        <v>2</v>
+      <c r="BI18" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:BI12" xr:uid="{F65DDA92-2BE3-4B27-B6F3-DDAD0E7A1265}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>